--- a/src/test/resources/com/sirion/xls/Vendor Hierarchy Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Vendor Hierarchy Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>

--- a/src/test/resources/com/sirion/xls/Vendor Hierarchy Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Vendor Hierarchy Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="902" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="902"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
